--- a/pruebas y controles.xlsx
+++ b/pruebas y controles.xlsx
@@ -828,7 +828,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1751,17 +1751,17 @@
       <c r="E34" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>9</v>
+      <c r="F34" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G34" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H34" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I34" s="29" t="s">
+        <v>75</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
@@ -1779,17 +1779,17 @@
       <c r="E35" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F35" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>9</v>
+      <c r="F35" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G35" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H35" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I35" s="29" t="s">
+        <v>75</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>

--- a/pruebas y controles.xlsx
+++ b/pruebas y controles.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="77">
   <si>
     <t>COD</t>
   </si>
@@ -431,7 +431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -520,6 +520,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -827,8 +833,8 @@
   <dimension ref="A1:L73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1807,10 +1813,18 @@
       <c r="E36" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="12"/>
+      <c r="F36" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G36" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H36" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I36" s="34" t="s">
+        <v>75</v>
+      </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
@@ -1827,10 +1841,18 @@
       <c r="E37" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="12"/>
+      <c r="F37" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G37" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H37" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I37" s="34" t="s">
+        <v>75</v>
+      </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
@@ -1847,10 +1869,18 @@
       <c r="E38" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="12"/>
+      <c r="F38" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G38" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H38" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I38" s="34" t="s">
+        <v>75</v>
+      </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
@@ -1869,16 +1899,18 @@
       <c r="E39" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F39" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I39" s="12"/>
+      <c r="F39" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G39" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H39" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I39" s="34" t="s">
+        <v>75</v>
+      </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
@@ -1897,16 +1929,18 @@
       <c r="E40" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F40" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I40" s="12"/>
+      <c r="F40" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G40" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H40" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I40" s="34" t="s">
+        <v>75</v>
+      </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -1923,10 +1957,18 @@
       <c r="E41" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="12"/>
+      <c r="F41" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G41" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H41" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I41" s="34" t="s">
+        <v>75</v>
+      </c>
       <c r="J41" s="13"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -1975,13 +2017,17 @@
       <c r="E43" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H43" s="14"/>
-      <c r="I43" s="12" t="s">
-        <v>9</v>
+      <c r="F43" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="G43" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="H43" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="I43" s="34" t="s">
+        <v>75</v>
       </c>
       <c r="J43" s="13"/>
       <c r="K43" s="3"/>
@@ -2031,10 +2077,18 @@
       <c r="E45" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="12"/>
+      <c r="F45" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="G45" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="H45" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="I45" s="34" t="s">
+        <v>75</v>
+      </c>
       <c r="J45" s="13"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
@@ -2051,14 +2105,18 @@
       <c r="E46" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H46" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="I46" s="12"/>
+      <c r="F46" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="G46" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="H46" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="I46" s="34" t="s">
+        <v>75</v>
+      </c>
       <c r="J46" s="13"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>

--- a/pruebas y controles.xlsx
+++ b/pruebas y controles.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="78">
   <si>
     <t>COD</t>
   </si>
@@ -245,6 +245,9 @@
   </si>
   <si>
     <t>orden</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -833,8 +836,8 @@
   <dimension ref="A1:L73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2133,10 +2136,18 @@
       <c r="E47" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="12"/>
+      <c r="F47" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="G47" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="H47" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="I47" s="34" t="s">
+        <v>75</v>
+      </c>
       <c r="J47" s="13"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
@@ -2177,10 +2188,18 @@
       <c r="E49" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="12"/>
+      <c r="F49" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="G49" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="H49" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="I49" s="34" t="s">
+        <v>75</v>
+      </c>
       <c r="J49" s="13" t="s">
         <v>9</v>
       </c>
@@ -2225,16 +2244,18 @@
       <c r="E51" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F51" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H51" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I51" s="12"/>
+      <c r="F51" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G51" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H51" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I51" s="34" t="s">
+        <v>75</v>
+      </c>
       <c r="J51" s="13"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
@@ -2253,16 +2274,18 @@
       <c r="E52" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F52" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I52" s="12"/>
+      <c r="F52" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G52" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H52" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I52" s="34" t="s">
+        <v>75</v>
+      </c>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
@@ -2279,10 +2302,18 @@
       <c r="E53" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="12"/>
+      <c r="F53" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G53" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H53" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I53" s="34" t="s">
+        <v>75</v>
+      </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
@@ -2299,10 +2330,18 @@
       <c r="E54" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="12"/>
+      <c r="F54" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G54" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H54" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I54" s="34" t="s">
+        <v>75</v>
+      </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
@@ -2319,10 +2358,18 @@
       <c r="E55" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="12"/>
+      <c r="F55" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G55" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H55" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I55" s="34" t="s">
+        <v>75</v>
+      </c>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
@@ -2339,10 +2386,18 @@
       <c r="E56" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="12"/>
+      <c r="F56" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G56" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H56" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I56" s="34" t="s">
+        <v>75</v>
+      </c>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
@@ -2359,10 +2414,18 @@
       <c r="E57" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="12"/>
+      <c r="F57" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G57" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H57" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I57" s="34" t="s">
+        <v>75</v>
+      </c>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
@@ -2379,10 +2442,18 @@
       <c r="E58" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="12"/>
+      <c r="F58" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G58" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H58" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I58" s="34" t="s">
+        <v>75</v>
+      </c>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
@@ -2401,10 +2472,18 @@
       <c r="E59" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="12"/>
+      <c r="F59" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="G59" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="H59" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="I59" s="34" t="s">
+        <v>77</v>
+      </c>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
@@ -2423,10 +2502,18 @@
       <c r="E60" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="12"/>
+      <c r="F60" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="G60" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="H60" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="I60" s="34" t="s">
+        <v>77</v>
+      </c>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>

--- a/pruebas y controles.xlsx
+++ b/pruebas y controles.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="77">
   <si>
     <t>COD</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>Error Semanas = 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -500,16 +497,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -529,6 +517,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -836,8 +833,8 @@
   <dimension ref="A1:L73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F61" sqref="F61"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -856,30 +853,30 @@
   <sheetData>
     <row r="1" spans="1:12" ht="24" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" s="31" t="s">
+      <c r="B1" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="33" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="30" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K1" s="2"/>
     </row>
@@ -897,17 +894,17 @@
       <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H2" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="I2" s="29" t="s">
-        <v>75</v>
+      <c r="F2" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>74</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -925,19 +922,19 @@
         <v>6</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H3" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="I3" s="29" t="s">
-        <v>75</v>
+        <v>9</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>74</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -955,19 +952,19 @@
         <v>6</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H4" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="I4" s="29" t="s">
-        <v>75</v>
+        <v>10</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>74</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -985,19 +982,19 @@
         <v>6</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="G5" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H5" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="I5" s="29" t="s">
-        <v>75</v>
+        <v>11</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>74</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -1015,19 +1012,19 @@
         <v>6</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="G6" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H6" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="I6" s="29" t="s">
-        <v>75</v>
+        <v>12</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>74</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -1043,19 +1040,19 @@
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="G7" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H7" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="I7" s="29" t="s">
-        <v>75</v>
+        <v>13</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>74</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -1071,19 +1068,19 @@
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="G8" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H8" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="I8" s="29" t="s">
-        <v>75</v>
+        <v>14</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>74</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -1099,19 +1096,19 @@
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="G9" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H9" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="I9" s="29" t="s">
-        <v>75</v>
+        <v>15</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>74</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -1127,19 +1124,19 @@
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="G10" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H10" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="I10" s="29" t="s">
-        <v>75</v>
+        <v>16</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>74</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -1155,19 +1152,19 @@
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="G11" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H11" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="I11" s="29" t="s">
-        <v>75</v>
+        <v>17</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>74</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -1183,22 +1180,22 @@
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H12" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="I12" s="29" t="s">
-        <v>75</v>
+        <v>18</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>74</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -1213,19 +1210,19 @@
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="G13" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H13" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="I13" s="29" t="s">
-        <v>75</v>
+        <v>19</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>74</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -1241,19 +1238,19 @@
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H14" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="I14" s="29" t="s">
-        <v>75</v>
+        <v>20</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>74</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -1269,19 +1266,19 @@
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="G15" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H15" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="I15" s="29" t="s">
-        <v>75</v>
+        <v>21</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>74</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -1297,19 +1294,19 @@
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="G16" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H16" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="I16" s="29" t="s">
-        <v>75</v>
+        <v>22</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>74</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -1325,19 +1322,19 @@
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="G17" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H17" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="I17" s="29" t="s">
-        <v>75</v>
+        <v>23</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I17" s="26" t="s">
+        <v>74</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -1353,19 +1350,19 @@
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="G18" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H18" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="I18" s="29" t="s">
-        <v>75</v>
+        <v>24</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>74</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -1381,19 +1378,19 @@
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="G19" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H19" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="I19" s="29" t="s">
-        <v>75</v>
+        <v>25</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I19" s="26" t="s">
+        <v>74</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -1409,19 +1406,19 @@
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="G20" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H20" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="I20" s="29" t="s">
-        <v>75</v>
+        <v>26</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I20" s="26" t="s">
+        <v>74</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -1437,19 +1434,19 @@
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="G21" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H21" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="I21" s="29" t="s">
-        <v>75</v>
+        <v>27</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I21" s="26" t="s">
+        <v>74</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -1465,19 +1462,19 @@
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="G22" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H22" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="I22" s="29" t="s">
-        <v>75</v>
+        <v>28</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H22" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I22" s="26" t="s">
+        <v>74</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -1493,19 +1490,19 @@
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="G23" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H23" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="I23" s="29" t="s">
-        <v>75</v>
+        <v>29</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I23" s="26" t="s">
+        <v>74</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -1521,19 +1518,19 @@
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="G24" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H24" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="I24" s="29" t="s">
-        <v>75</v>
+        <v>30</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I24" s="26" t="s">
+        <v>74</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -1549,19 +1546,19 @@
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="G25" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H25" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="I25" s="29" t="s">
-        <v>75</v>
+        <v>31</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H25" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I25" s="26" t="s">
+        <v>74</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -1577,19 +1574,19 @@
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F26" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="G26" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H26" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="I26" s="29" t="s">
-        <v>75</v>
+        <v>32</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H26" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I26" s="26" t="s">
+        <v>74</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -1605,19 +1602,19 @@
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F27" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="G27" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H27" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="I27" s="29" t="s">
-        <v>75</v>
+        <v>33</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G27" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H27" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I27" s="26" t="s">
+        <v>74</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -1633,19 +1630,19 @@
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F28" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="G28" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H28" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="I28" s="29" t="s">
-        <v>75</v>
+        <v>34</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G28" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H28" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I28" s="26" t="s">
+        <v>74</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -1661,19 +1658,19 @@
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F29" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="G29" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H29" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="I29" s="29" t="s">
-        <v>75</v>
+        <v>35</v>
+      </c>
+      <c r="F29" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H29" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I29" s="26" t="s">
+        <v>74</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
@@ -1697,7 +1694,7 @@
       <c r="B31" s="9"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
@@ -1730,19 +1727,19 @@
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F33" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="G33" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H33" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="I33" s="29" t="s">
-        <v>75</v>
+        <v>37</v>
+      </c>
+      <c r="F33" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G33" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H33" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I33" s="26" t="s">
+        <v>74</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -1758,19 +1755,19 @@
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F34" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="G34" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H34" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="I34" s="29" t="s">
-        <v>75</v>
+        <v>38</v>
+      </c>
+      <c r="F34" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G34" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H34" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I34" s="26" t="s">
+        <v>74</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
@@ -1786,19 +1783,19 @@
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F35" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="G35" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H35" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="I35" s="29" t="s">
-        <v>75</v>
+        <v>39</v>
+      </c>
+      <c r="F35" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G35" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H35" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I35" s="26" t="s">
+        <v>74</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
@@ -1814,19 +1811,19 @@
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F36" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="G36" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H36" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="I36" s="34" t="s">
-        <v>75</v>
+        <v>40</v>
+      </c>
+      <c r="F36" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G36" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H36" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I36" s="31" t="s">
+        <v>74</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
@@ -1842,19 +1839,19 @@
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F37" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="G37" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H37" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="I37" s="34" t="s">
-        <v>75</v>
+        <v>41</v>
+      </c>
+      <c r="F37" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G37" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H37" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I37" s="31" t="s">
+        <v>74</v>
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
@@ -1870,19 +1867,19 @@
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F38" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="G38" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H38" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="I38" s="34" t="s">
-        <v>75</v>
+        <v>42</v>
+      </c>
+      <c r="F38" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G38" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H38" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I38" s="31" t="s">
+        <v>74</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -1900,19 +1897,19 @@
         <v>6</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F39" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="G39" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H39" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="I39" s="34" t="s">
-        <v>75</v>
+        <v>43</v>
+      </c>
+      <c r="F39" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G39" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H39" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I39" s="31" t="s">
+        <v>74</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
@@ -1930,19 +1927,19 @@
         <v>6</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F40" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="G40" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H40" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="I40" s="34" t="s">
-        <v>75</v>
+        <v>44</v>
+      </c>
+      <c r="F40" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G40" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H40" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I40" s="31" t="s">
+        <v>74</v>
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
@@ -1958,19 +1955,19 @@
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F41" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="G41" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H41" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="I41" s="34" t="s">
-        <v>75</v>
+        <v>45</v>
+      </c>
+      <c r="F41" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G41" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H41" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I41" s="31" t="s">
+        <v>74</v>
       </c>
       <c r="J41" s="13"/>
       <c r="K41" s="3"/>
@@ -1986,25 +1983,25 @@
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I42" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J42" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K42" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L42" s="3"/>
     </row>
@@ -2018,19 +2015,19 @@
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F43" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="G43" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="H43" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="I43" s="34" t="s">
-        <v>75</v>
+        <v>47</v>
+      </c>
+      <c r="F43" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="G43" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="H43" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="I43" s="31" t="s">
+        <v>74</v>
       </c>
       <c r="J43" s="13"/>
       <c r="K43" s="3"/>
@@ -2046,25 +2043,25 @@
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H44" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I44" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J44" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K44" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L44" s="3"/>
     </row>
@@ -2078,19 +2075,19 @@
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F45" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="G45" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="H45" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="I45" s="34" t="s">
-        <v>75</v>
+        <v>49</v>
+      </c>
+      <c r="F45" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="G45" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="H45" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="I45" s="31" t="s">
+        <v>74</v>
       </c>
       <c r="J45" s="13"/>
       <c r="K45" s="3"/>
@@ -2106,19 +2103,19 @@
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F46" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="G46" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="H46" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="I46" s="34" t="s">
-        <v>75</v>
+        <v>50</v>
+      </c>
+      <c r="F46" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="G46" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="H46" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="I46" s="31" t="s">
+        <v>74</v>
       </c>
       <c r="J46" s="13"/>
       <c r="K46" s="3"/>
@@ -2134,19 +2131,19 @@
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F47" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="G47" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="H47" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="I47" s="34" t="s">
-        <v>75</v>
+        <v>51</v>
+      </c>
+      <c r="F47" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="G47" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="H47" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="I47" s="31" t="s">
+        <v>74</v>
       </c>
       <c r="J47" s="13"/>
       <c r="K47" s="3"/>
@@ -2162,17 +2159,17 @@
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F48" s="14"/>
       <c r="G48" s="14"/>
       <c r="H48" s="14"/>
       <c r="I48" s="12"/>
       <c r="J48" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K48" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L48" s="3"/>
     </row>
@@ -2186,22 +2183,22 @@
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F49" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="G49" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="H49" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="I49" s="34" t="s">
-        <v>75</v>
+        <v>54</v>
+      </c>
+      <c r="F49" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="G49" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="H49" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="I49" s="31" t="s">
+        <v>74</v>
       </c>
       <c r="J49" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
@@ -2216,17 +2213,17 @@
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F50" s="14"/>
       <c r="G50" s="14"/>
       <c r="H50" s="14"/>
       <c r="I50" s="12"/>
       <c r="J50" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K50" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L50" s="3"/>
     </row>
@@ -2242,19 +2239,19 @@
         <v>6</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F51" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="G51" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H51" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="I51" s="34" t="s">
-        <v>75</v>
+        <v>56</v>
+      </c>
+      <c r="F51" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G51" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H51" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I51" s="31" t="s">
+        <v>74</v>
       </c>
       <c r="J51" s="13"/>
       <c r="K51" s="3"/>
@@ -2272,19 +2269,19 @@
         <v>6</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F52" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="G52" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H52" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="I52" s="34" t="s">
-        <v>75</v>
+        <v>57</v>
+      </c>
+      <c r="F52" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G52" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H52" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I52" s="31" t="s">
+        <v>74</v>
       </c>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
@@ -2300,19 +2297,19 @@
       </c>
       <c r="D53" s="6"/>
       <c r="E53" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F53" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="G53" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H53" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="I53" s="34" t="s">
-        <v>75</v>
+        <v>58</v>
+      </c>
+      <c r="F53" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G53" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H53" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I53" s="31" t="s">
+        <v>74</v>
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
@@ -2328,19 +2325,19 @@
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F54" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="G54" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H54" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="I54" s="34" t="s">
-        <v>75</v>
+        <v>59</v>
+      </c>
+      <c r="F54" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G54" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H54" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I54" s="31" t="s">
+        <v>74</v>
       </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
@@ -2356,19 +2353,19 @@
       </c>
       <c r="D55" s="6"/>
       <c r="E55" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F55" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="G55" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H55" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="I55" s="34" t="s">
-        <v>75</v>
+        <v>60</v>
+      </c>
+      <c r="F55" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G55" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H55" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I55" s="31" t="s">
+        <v>74</v>
       </c>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
@@ -2384,19 +2381,19 @@
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F56" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="G56" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H56" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="I56" s="34" t="s">
-        <v>75</v>
+        <v>61</v>
+      </c>
+      <c r="F56" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G56" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H56" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I56" s="31" t="s">
+        <v>74</v>
       </c>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
@@ -2412,19 +2409,19 @@
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F57" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="G57" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H57" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="I57" s="34" t="s">
-        <v>75</v>
+        <v>62</v>
+      </c>
+      <c r="F57" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G57" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H57" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I57" s="31" t="s">
+        <v>74</v>
       </c>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
@@ -2440,19 +2437,19 @@
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F58" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="G58" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H58" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="I58" s="34" t="s">
-        <v>75</v>
+        <v>63</v>
+      </c>
+      <c r="F58" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G58" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H58" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I58" s="31" t="s">
+        <v>74</v>
       </c>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
@@ -2470,19 +2467,19 @@
         <v>6</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F59" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="G59" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="H59" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="I59" s="34" t="s">
-        <v>77</v>
+        <v>64</v>
+      </c>
+      <c r="F59" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="G59" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="H59" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="I59" s="31" t="s">
+        <v>76</v>
       </c>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
@@ -2500,19 +2497,19 @@
         <v>6</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F60" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="G60" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="H60" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="I60" s="34" t="s">
-        <v>77</v>
+        <v>65</v>
+      </c>
+      <c r="F60" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="G60" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="H60" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="I60" s="31" t="s">
+        <v>76</v>
       </c>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
@@ -2528,12 +2525,20 @@
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="12"/>
+        <v>66</v>
+      </c>
+      <c r="F61" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G61" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H61" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I61" s="31" t="s">
+        <v>74</v>
+      </c>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
@@ -2548,12 +2553,20 @@
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="12"/>
+        <v>67</v>
+      </c>
+      <c r="F62" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G62" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H62" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I62" s="31" t="s">
+        <v>74</v>
+      </c>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
@@ -2568,12 +2581,20 @@
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="12"/>
+        <v>68</v>
+      </c>
+      <c r="F63" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G63" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H63" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I63" s="31" t="s">
+        <v>74</v>
+      </c>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
@@ -2588,12 +2609,20 @@
       </c>
       <c r="D64" s="6"/>
       <c r="E64" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="12"/>
+        <v>69</v>
+      </c>
+      <c r="F64" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G64" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H64" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I64" s="31" t="s">
+        <v>74</v>
+      </c>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
@@ -2608,12 +2637,20 @@
       </c>
       <c r="D65" s="6"/>
       <c r="E65" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="12"/>
+        <v>70</v>
+      </c>
+      <c r="F65" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G65" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H65" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I65" s="31" t="s">
+        <v>74</v>
+      </c>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
@@ -2630,18 +2667,20 @@
         <v>6</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H66" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I66" s="12"/>
+        <v>71</v>
+      </c>
+      <c r="F66" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G66" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H66" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I66" s="31" t="s">
+        <v>74</v>
+      </c>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
@@ -2658,18 +2697,20 @@
         <v>6</v>
       </c>
       <c r="E67" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="F67" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="G67" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="H67" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="I67" s="26"/>
+        <v>72</v>
+      </c>
+      <c r="F67" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="G67" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="H67" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="I67" s="34" t="s">
+        <v>74</v>
+      </c>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
@@ -2682,22 +2723,24 @@
       <c r="C68" s="10">
         <v>64</v>
       </c>
-      <c r="D68" s="27" t="s">
+      <c r="D68" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E68" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="F68" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="G68" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="H68" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="I68" s="28"/>
+      <c r="E68" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F68" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="G68" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="H68" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="I68" s="35" t="s">
+        <v>74</v>
+      </c>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>

--- a/pruebas y controles.xlsx
+++ b/pruebas y controles.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="78">
   <si>
     <t>COD</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>Error Semanas = 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -497,7 +500,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -517,15 +529,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -833,8 +836,8 @@
   <dimension ref="A1:L73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E61" sqref="E61"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -853,30 +856,30 @@
   <sheetData>
     <row r="1" spans="1:12" ht="24" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="33" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="2"/>
     </row>
@@ -894,17 +897,17 @@
       <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="I2" s="26" t="s">
-        <v>74</v>
+      <c r="F2" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>75</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -922,19 +925,19 @@
         <v>6</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="H3" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="I3" s="26" t="s">
-        <v>74</v>
+        <v>10</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>75</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -952,19 +955,19 @@
         <v>6</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="H4" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="I4" s="26" t="s">
-        <v>74</v>
+        <v>11</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>75</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -982,19 +985,19 @@
         <v>6</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="G5" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="H5" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="I5" s="26" t="s">
-        <v>74</v>
+        <v>12</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>75</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -1012,19 +1015,19 @@
         <v>6</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="H6" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="I6" s="26" t="s">
-        <v>74</v>
+        <v>13</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>75</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -1040,19 +1043,19 @@
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="I7" s="26" t="s">
-        <v>74</v>
+        <v>14</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>75</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -1068,19 +1071,19 @@
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="H8" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="I8" s="26" t="s">
-        <v>74</v>
+        <v>15</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" s="29" t="s">
+        <v>75</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -1096,19 +1099,19 @@
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="H9" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="I9" s="26" t="s">
-        <v>74</v>
+        <v>16</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" s="29" t="s">
+        <v>75</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -1124,19 +1127,19 @@
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="H10" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="I10" s="26" t="s">
-        <v>74</v>
+        <v>17</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>75</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -1152,19 +1155,19 @@
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="G11" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="H11" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="I11" s="26" t="s">
-        <v>74</v>
+        <v>18</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" s="29" t="s">
+        <v>75</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -1180,22 +1183,22 @@
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="H12" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="I12" s="26" t="s">
-        <v>74</v>
+        <v>19</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" s="29" t="s">
+        <v>75</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -1210,19 +1213,19 @@
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="G13" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="H13" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="I13" s="26" t="s">
-        <v>74</v>
+        <v>20</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" s="29" t="s">
+        <v>75</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -1238,19 +1241,19 @@
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="H14" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="I14" s="26" t="s">
-        <v>74</v>
+        <v>21</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" s="29" t="s">
+        <v>75</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -1266,19 +1269,19 @@
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="G15" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="H15" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="I15" s="26" t="s">
-        <v>74</v>
+        <v>22</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15" s="29" t="s">
+        <v>75</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -1294,19 +1297,19 @@
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="G16" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="H16" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="I16" s="26" t="s">
-        <v>74</v>
+        <v>23</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I16" s="29" t="s">
+        <v>75</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -1322,19 +1325,19 @@
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="H17" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="I17" s="26" t="s">
-        <v>74</v>
+        <v>24</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17" s="29" t="s">
+        <v>75</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -1350,19 +1353,19 @@
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="G18" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="H18" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="I18" s="26" t="s">
-        <v>74</v>
+        <v>25</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" s="29" t="s">
+        <v>75</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -1378,19 +1381,19 @@
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="G19" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="H19" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="I19" s="26" t="s">
-        <v>74</v>
+        <v>26</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19" s="29" t="s">
+        <v>75</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -1406,19 +1409,19 @@
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="G20" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="H20" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="I20" s="26" t="s">
-        <v>74</v>
+        <v>27</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I20" s="29" t="s">
+        <v>75</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -1434,19 +1437,19 @@
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="G21" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="H21" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="I21" s="26" t="s">
-        <v>74</v>
+        <v>28</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I21" s="29" t="s">
+        <v>75</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -1462,19 +1465,19 @@
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="G22" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="H22" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="I22" s="26" t="s">
-        <v>74</v>
+        <v>29</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H22" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I22" s="29" t="s">
+        <v>75</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -1490,19 +1493,19 @@
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="G23" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="H23" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="I23" s="26" t="s">
-        <v>74</v>
+        <v>30</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H23" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I23" s="29" t="s">
+        <v>75</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -1518,19 +1521,19 @@
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="G24" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="H24" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="I24" s="26" t="s">
-        <v>74</v>
+        <v>31</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H24" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I24" s="29" t="s">
+        <v>75</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -1546,19 +1549,19 @@
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F25" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="G25" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="H25" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="I25" s="26" t="s">
-        <v>74</v>
+        <v>32</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H25" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I25" s="29" t="s">
+        <v>75</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -1574,19 +1577,19 @@
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="G26" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="H26" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="I26" s="26" t="s">
-        <v>74</v>
+        <v>33</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H26" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I26" s="29" t="s">
+        <v>75</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -1602,19 +1605,19 @@
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F27" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="G27" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="H27" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="I27" s="26" t="s">
-        <v>74</v>
+        <v>34</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G27" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H27" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I27" s="29" t="s">
+        <v>75</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -1630,19 +1633,19 @@
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="G28" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="H28" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="I28" s="26" t="s">
-        <v>74</v>
+        <v>35</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G28" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H28" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I28" s="29" t="s">
+        <v>75</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -1658,19 +1661,19 @@
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F29" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="G29" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="H29" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="I29" s="26" t="s">
-        <v>74</v>
+        <v>36</v>
+      </c>
+      <c r="F29" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G29" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H29" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I29" s="29" t="s">
+        <v>75</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
@@ -1694,7 +1697,7 @@
       <c r="B31" s="9"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
@@ -1727,19 +1730,19 @@
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F33" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="G33" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="H33" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="I33" s="26" t="s">
-        <v>74</v>
+        <v>38</v>
+      </c>
+      <c r="F33" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G33" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H33" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I33" s="29" t="s">
+        <v>75</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -1755,19 +1758,19 @@
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F34" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="G34" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="H34" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="I34" s="26" t="s">
-        <v>74</v>
+        <v>39</v>
+      </c>
+      <c r="F34" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G34" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H34" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I34" s="29" t="s">
+        <v>75</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
@@ -1783,19 +1786,19 @@
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F35" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="G35" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="H35" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="I35" s="26" t="s">
-        <v>74</v>
+        <v>40</v>
+      </c>
+      <c r="F35" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G35" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H35" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I35" s="29" t="s">
+        <v>75</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
@@ -1811,19 +1814,19 @@
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F36" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="G36" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="H36" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="I36" s="31" t="s">
-        <v>74</v>
+        <v>41</v>
+      </c>
+      <c r="F36" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G36" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H36" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I36" s="34" t="s">
+        <v>75</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
@@ -1839,19 +1842,19 @@
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F37" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="G37" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="H37" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="I37" s="31" t="s">
-        <v>74</v>
+        <v>42</v>
+      </c>
+      <c r="F37" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G37" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H37" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I37" s="34" t="s">
+        <v>75</v>
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
@@ -1867,19 +1870,19 @@
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F38" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="G38" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="H38" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="I38" s="31" t="s">
-        <v>74</v>
+        <v>43</v>
+      </c>
+      <c r="F38" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G38" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H38" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I38" s="34" t="s">
+        <v>75</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -1897,19 +1900,19 @@
         <v>6</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F39" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="G39" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="H39" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="I39" s="31" t="s">
-        <v>74</v>
+        <v>44</v>
+      </c>
+      <c r="F39" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G39" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H39" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I39" s="34" t="s">
+        <v>75</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
@@ -1927,19 +1930,19 @@
         <v>6</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F40" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="G40" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="H40" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="I40" s="31" t="s">
-        <v>74</v>
+        <v>45</v>
+      </c>
+      <c r="F40" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G40" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H40" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I40" s="34" t="s">
+        <v>75</v>
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
@@ -1955,19 +1958,19 @@
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F41" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="G41" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="H41" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="I41" s="31" t="s">
-        <v>74</v>
+        <v>46</v>
+      </c>
+      <c r="F41" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G41" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H41" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I41" s="34" t="s">
+        <v>75</v>
       </c>
       <c r="J41" s="13"/>
       <c r="K41" s="3"/>
@@ -1983,25 +1986,25 @@
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I42" s="14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J42" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K42" s="15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L42" s="3"/>
     </row>
@@ -2015,19 +2018,19 @@
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F43" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="G43" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="H43" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="I43" s="31" t="s">
-        <v>74</v>
+        <v>48</v>
+      </c>
+      <c r="F43" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="G43" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="H43" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="I43" s="34" t="s">
+        <v>75</v>
       </c>
       <c r="J43" s="13"/>
       <c r="K43" s="3"/>
@@ -2043,25 +2046,25 @@
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H44" s="14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I44" s="14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J44" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K44" s="15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L44" s="3"/>
     </row>
@@ -2075,19 +2078,19 @@
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F45" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="G45" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="H45" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="I45" s="31" t="s">
-        <v>74</v>
+        <v>50</v>
+      </c>
+      <c r="F45" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="G45" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="H45" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="I45" s="34" t="s">
+        <v>75</v>
       </c>
       <c r="J45" s="13"/>
       <c r="K45" s="3"/>
@@ -2103,19 +2106,19 @@
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F46" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="G46" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="H46" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="I46" s="31" t="s">
-        <v>74</v>
+        <v>51</v>
+      </c>
+      <c r="F46" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="G46" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="H46" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="I46" s="34" t="s">
+        <v>75</v>
       </c>
       <c r="J46" s="13"/>
       <c r="K46" s="3"/>
@@ -2131,19 +2134,19 @@
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F47" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="G47" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="H47" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="I47" s="31" t="s">
-        <v>74</v>
+        <v>52</v>
+      </c>
+      <c r="F47" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="G47" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="H47" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="I47" s="34" t="s">
+        <v>75</v>
       </c>
       <c r="J47" s="13"/>
       <c r="K47" s="3"/>
@@ -2159,17 +2162,17 @@
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F48" s="14"/>
       <c r="G48" s="14"/>
       <c r="H48" s="14"/>
       <c r="I48" s="12"/>
       <c r="J48" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K48" s="16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L48" s="3"/>
     </row>
@@ -2183,22 +2186,22 @@
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F49" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="G49" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="H49" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="I49" s="31" t="s">
-        <v>74</v>
+        <v>55</v>
+      </c>
+      <c r="F49" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="G49" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="H49" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="I49" s="34" t="s">
+        <v>75</v>
       </c>
       <c r="J49" s="13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
@@ -2213,17 +2216,17 @@
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F50" s="14"/>
       <c r="G50" s="14"/>
       <c r="H50" s="14"/>
       <c r="I50" s="12"/>
       <c r="J50" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K50" s="16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L50" s="3"/>
     </row>
@@ -2239,19 +2242,19 @@
         <v>6</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F51" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="G51" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="H51" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="I51" s="31" t="s">
-        <v>74</v>
+        <v>57</v>
+      </c>
+      <c r="F51" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G51" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H51" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I51" s="34" t="s">
+        <v>75</v>
       </c>
       <c r="J51" s="13"/>
       <c r="K51" s="3"/>
@@ -2269,19 +2272,19 @@
         <v>6</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F52" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="G52" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="H52" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="I52" s="31" t="s">
-        <v>74</v>
+        <v>58</v>
+      </c>
+      <c r="F52" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G52" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H52" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I52" s="34" t="s">
+        <v>75</v>
       </c>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
@@ -2297,19 +2300,19 @@
       </c>
       <c r="D53" s="6"/>
       <c r="E53" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F53" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="G53" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="H53" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="I53" s="31" t="s">
-        <v>74</v>
+        <v>59</v>
+      </c>
+      <c r="F53" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G53" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H53" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I53" s="34" t="s">
+        <v>75</v>
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
@@ -2325,19 +2328,19 @@
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F54" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="G54" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="H54" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="I54" s="31" t="s">
-        <v>74</v>
+        <v>60</v>
+      </c>
+      <c r="F54" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G54" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H54" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I54" s="34" t="s">
+        <v>75</v>
       </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
@@ -2353,19 +2356,19 @@
       </c>
       <c r="D55" s="6"/>
       <c r="E55" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F55" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="G55" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="H55" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="I55" s="31" t="s">
-        <v>74</v>
+        <v>61</v>
+      </c>
+      <c r="F55" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G55" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H55" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I55" s="34" t="s">
+        <v>75</v>
       </c>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
@@ -2381,19 +2384,19 @@
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F56" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="G56" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="H56" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="I56" s="31" t="s">
-        <v>74</v>
+        <v>62</v>
+      </c>
+      <c r="F56" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G56" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H56" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I56" s="34" t="s">
+        <v>75</v>
       </c>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
@@ -2409,19 +2412,19 @@
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F57" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="G57" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="H57" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="I57" s="31" t="s">
-        <v>74</v>
+        <v>63</v>
+      </c>
+      <c r="F57" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G57" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H57" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I57" s="34" t="s">
+        <v>75</v>
       </c>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
@@ -2437,19 +2440,19 @@
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F58" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="G58" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="H58" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="I58" s="31" t="s">
-        <v>74</v>
+        <v>64</v>
+      </c>
+      <c r="F58" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G58" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H58" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I58" s="34" t="s">
+        <v>75</v>
       </c>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
@@ -2467,19 +2470,19 @@
         <v>6</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F59" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="G59" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="H59" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="I59" s="31" t="s">
-        <v>76</v>
+        <v>65</v>
+      </c>
+      <c r="F59" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="G59" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="H59" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="I59" s="34" t="s">
+        <v>77</v>
       </c>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
@@ -2497,19 +2500,19 @@
         <v>6</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F60" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="G60" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="H60" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="I60" s="31" t="s">
-        <v>76</v>
+        <v>66</v>
+      </c>
+      <c r="F60" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="G60" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="H60" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="I60" s="34" t="s">
+        <v>77</v>
       </c>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
@@ -2525,20 +2528,12 @@
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F61" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="G61" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="H61" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="I61" s="31" t="s">
-        <v>74</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="12"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
@@ -2553,20 +2548,12 @@
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F62" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="G62" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="H62" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="I62" s="31" t="s">
-        <v>74</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="12"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
@@ -2581,20 +2568,12 @@
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F63" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="G63" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="H63" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="I63" s="31" t="s">
-        <v>74</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="12"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
@@ -2609,20 +2588,12 @@
       </c>
       <c r="D64" s="6"/>
       <c r="E64" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F64" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="G64" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="H64" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="I64" s="31" t="s">
-        <v>74</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="12"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
@@ -2637,20 +2608,12 @@
       </c>
       <c r="D65" s="6"/>
       <c r="E65" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F65" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="G65" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="H65" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="I65" s="31" t="s">
-        <v>74</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="12"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
@@ -2667,20 +2630,18 @@
         <v>6</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F66" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="G66" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="H66" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="I66" s="31" t="s">
-        <v>74</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I66" s="12"/>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
@@ -2697,20 +2658,18 @@
         <v>6</v>
       </c>
       <c r="E67" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="F67" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="G67" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="H67" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="I67" s="34" t="s">
-        <v>74</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="F67" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G67" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="H67" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="I67" s="26"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
@@ -2723,24 +2682,22 @@
       <c r="C68" s="10">
         <v>64</v>
       </c>
-      <c r="D68" s="25" t="s">
+      <c r="D68" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E68" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="F68" s="35" t="s">
+      <c r="E68" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="G68" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="H68" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="I68" s="35" t="s">
-        <v>74</v>
-      </c>
+      <c r="F68" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G68" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="H68" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="I68" s="28"/>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
